--- a/network/optimus_network.xlsx
+++ b/network/optimus_network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HojinChoi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12430CC8-51EC-3F41-B448-6F095C7A7220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7E750C-4324-1345-90A1-DB9B0C3A7853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{10E9BE16-C6FC-404A-A046-4B7B1F12927E}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="25020" windowHeight="14680" xr2:uid="{10E9BE16-C6FC-404A-A046-4B7B1F12927E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">이동열 2대 주주, N개 회사 대표 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>씨피엔에스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최남용 전 기금운용본부장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">한국방송통신전파진흥원 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,10 +177,9 @@
   </si>
   <si>
     <t>정영제 대표(골든코어, 전 옵티머스 대체투자) 겸 사외이사(성지건설)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수목적법인(SPC, 옵티머스 펀드 자금이 흘러들어감)</t>
+  </si>
+  <si>
+    <t>정영제 대표(골든코어, 전 옵티머스 대체투자) 겸 사외이사(성지건설)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -200,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유현권 고문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>티알시티</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,11 +199,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>윤석호 변호사(H 법무법인) 겸 사외이사(스킨앤스킨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이피플러스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이동열 2대주주, N개 회사 대표 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최남용 경인본부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STX건설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 모 회장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 모 이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤 모 대표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해덕파워웨이(현 에이치디)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박 모 전 대표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세보테크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강 모 총괄이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고 전 부회장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명성티엔에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 모 전 최대주주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤 모 소액주주대표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진아 사외이사(전 청와대 행정관)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박 모 대표이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재명 경기도지사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디오마레리조트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충주호유람선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루웨일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셉틸리언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵티머스 정·관계 로비 의혹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자문단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채동욱 전 검찰총장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양호 전 나라은행장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이헌재 전 경제부총리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김진홍 전 군인공제회 이사장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검찰 수사관(청와대 민정수석실 파견 근무)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청와대 행정관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤 모 전 금융감독원장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내추럴에코그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현권 고문(스킨앤스킨) 겸 사내이사(내추럴에코그룹)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석호 변호사(H 법무법인) 겸 사외이사(스킨앤스킨), 감사(화성산업, 내추럴에코그룹), 이피플러스 최대주주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다중공업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이치엘비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신 모 연예기획사 전 대표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기 모 M시행사 대표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 모 M시행사 본부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건국대 법인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종문 사장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더클래식500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유자은 이사장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유향열 한국남동발전 사장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수목적법인(SPC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,6 +406,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -263,8 +442,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,15 +763,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA676E6-B07C-E844-84FA-9A70E6E48195}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -646,29 +828,29 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -679,13 +861,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -693,16 +875,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,130 +892,130 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -847,52 +1029,52 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
         <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -903,10 +1085,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
         <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -917,484 +1099,1528 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
       <c r="C25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
       <c r="C26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
       <c r="C27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>26</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>32</v>
-      </c>
-      <c r="B43" t="s">
-        <v>35</v>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
         <v>36</v>
       </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
       <c r="D44">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>9</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C50">
         <v>9</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>9</v>
       </c>
       <c r="D51">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C54">
         <v>9</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D55">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D58">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C60">
         <v>10</v>
       </c>
       <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>37</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>37</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>37</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72">
         <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>42</v>
+      </c>
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>43</v>
+      </c>
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>43</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>45</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>46</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79">
+        <v>15</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>46</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>47</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>48</v>
+      </c>
+      <c r="B82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82">
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>49</v>
+      </c>
+      <c r="B83" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>50</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85">
+        <v>17</v>
+      </c>
+      <c r="D85">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>52</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86">
+        <v>17</v>
+      </c>
+      <c r="D86">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>53</v>
+      </c>
+      <c r="B87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>54</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>55</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89">
+        <v>19</v>
+      </c>
+      <c r="D89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>55</v>
+      </c>
+      <c r="B90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90">
+        <v>19</v>
+      </c>
+      <c r="D90">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>55</v>
+      </c>
+      <c r="B91" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91">
+        <v>19</v>
+      </c>
+      <c r="D91">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>55</v>
+      </c>
+      <c r="B92" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92">
+        <v>19</v>
+      </c>
+      <c r="D92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>55</v>
+      </c>
+      <c r="B93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93">
+        <v>19</v>
+      </c>
+      <c r="D93">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>55</v>
+      </c>
+      <c r="B94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94">
+        <v>19</v>
+      </c>
+      <c r="D94">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>55</v>
+      </c>
+      <c r="B95" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95">
+        <v>19</v>
+      </c>
+      <c r="D95">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>56</v>
+      </c>
+      <c r="B96" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>56</v>
+      </c>
+      <c r="B97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>56</v>
+      </c>
+      <c r="B98" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>57</v>
+      </c>
+      <c r="B99" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99">
+        <v>18</v>
+      </c>
+      <c r="D99">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>58</v>
+      </c>
+      <c r="B100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>58</v>
+      </c>
+      <c r="B101" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>59</v>
+      </c>
+      <c r="B102" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102">
+        <v>21</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>60</v>
+      </c>
+      <c r="B103" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103">
+        <v>20</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>61</v>
+      </c>
+      <c r="B104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>62</v>
+      </c>
+      <c r="B105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>63</v>
+      </c>
+      <c r="B106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106">
+        <v>22</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>64</v>
+      </c>
+      <c r="B107" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107">
+        <v>22</v>
+      </c>
+      <c r="D107">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>65</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>65</v>
+      </c>
+      <c r="B109" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+      <c r="D109">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>66</v>
+      </c>
+      <c r="B110" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110">
+        <v>20</v>
+      </c>
+      <c r="D110">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>66</v>
+      </c>
+      <c r="B111" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>66</v>
+      </c>
+      <c r="B112" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112">
+        <v>20</v>
+      </c>
+      <c r="D112">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>67</v>
+      </c>
+      <c r="B113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>67</v>
+      </c>
+      <c r="B114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114">
+        <v>20</v>
+      </c>
+      <c r="D114">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>67</v>
+      </c>
+      <c r="B115" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115">
+        <v>20</v>
+      </c>
+      <c r="D115">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>68</v>
+      </c>
+      <c r="B116" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116">
+        <v>20</v>
+      </c>
+      <c r="D116">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>69</v>
+      </c>
+      <c r="B117" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117">
+        <v>20</v>
+      </c>
+      <c r="D117">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>70</v>
+      </c>
+      <c r="B118" t="s">
+        <v>73</v>
+      </c>
+      <c r="C118">
+        <v>20</v>
+      </c>
+      <c r="D118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>71</v>
+      </c>
+      <c r="B119" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>72</v>
+      </c>
+      <c r="B120" t="s">
+        <v>77</v>
+      </c>
+      <c r="C120">
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>73</v>
+      </c>
+      <c r="B121" t="s">
+        <v>78</v>
+      </c>
+      <c r="C121">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>72</v>
+      </c>
+      <c r="B122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C122">
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>74</v>
+      </c>
+      <c r="B123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123">
+        <v>23</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>75</v>
+      </c>
+      <c r="B124" t="s">
+        <v>80</v>
+      </c>
+      <c r="C124">
+        <v>23</v>
+      </c>
+      <c r="D124">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>75</v>
+      </c>
+      <c r="B125" t="s">
+        <v>80</v>
+      </c>
+      <c r="C125">
+        <v>23</v>
+      </c>
+      <c r="D125">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>76</v>
+      </c>
+      <c r="B126" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126">
+        <v>23</v>
+      </c>
+      <c r="D126">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>77</v>
+      </c>
+      <c r="B127" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127">
+        <v>23</v>
+      </c>
+      <c r="D127">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>78</v>
+      </c>
+      <c r="B128" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128">
+        <v>24</v>
+      </c>
+      <c r="D128">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>79</v>
+      </c>
+      <c r="B129" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129">
+        <v>24</v>
+      </c>
+      <c r="D129">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>80</v>
+      </c>
+      <c r="B130" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130">
+        <v>24</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>81</v>
+      </c>
+      <c r="B131" t="s">
+        <v>84</v>
+      </c>
+      <c r="C131">
+        <v>24</v>
+      </c>
+      <c r="D131">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>82</v>
+      </c>
+      <c r="B132" t="s">
+        <v>87</v>
+      </c>
+      <c r="C132">
+        <v>24</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/network/optimus_network.xlsx
+++ b/network/optimus_network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HojinChoi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7E750C-4324-1345-90A1-DB9B0C3A7853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAD3178-135A-BC44-AAE2-DE89169F940E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="25020" windowHeight="14680" xr2:uid="{10E9BE16-C6FC-404A-A046-4B7B1F12927E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15840" windowHeight="14680" xr2:uid="{10E9BE16-C6FC-404A-A046-4B7B1F12927E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -327,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>윤 모 전 금융감독원장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내추럴에코그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신 모 연예기획사 전 대표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기 모 M시행사 대표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,6 +380,14 @@
   </si>
   <si>
     <t>특수목적법인(SPC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤 모 전 금융감독원 국장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신 모 전 연예기획사 대표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA676E6-B07C-E844-84FA-9A70E6E48195}">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -892,7 +892,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1634,7 +1634,7 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62">
         <v>11</v>
@@ -1648,7 +1648,7 @@
         <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63">
         <v>11</v>
@@ -1662,7 +1662,7 @@
         <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64">
         <v>11</v>
@@ -1676,7 +1676,7 @@
         <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65">
         <v>11</v>
@@ -1690,7 +1690,7 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66">
         <v>11</v>
@@ -2418,7 +2418,7 @@
         <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C118">
         <v>20</v>
@@ -2432,7 +2432,7 @@
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C119">
         <v>6</v>
@@ -2446,7 +2446,7 @@
         <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C120">
         <v>12</v>
@@ -2460,7 +2460,7 @@
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C121">
         <v>12</v>
@@ -2474,7 +2474,7 @@
         <v>72</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C122">
         <v>12</v>
@@ -2488,7 +2488,7 @@
         <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C123">
         <v>23</v>
@@ -2502,7 +2502,7 @@
         <v>75</v>
       </c>
       <c r="B124" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C124">
         <v>23</v>
@@ -2516,7 +2516,7 @@
         <v>75</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C125">
         <v>23</v>
@@ -2530,7 +2530,7 @@
         <v>76</v>
       </c>
       <c r="B126" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C126">
         <v>23</v>
@@ -2544,7 +2544,7 @@
         <v>77</v>
       </c>
       <c r="B127" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C127">
         <v>23</v>
@@ -2558,7 +2558,7 @@
         <v>78</v>
       </c>
       <c r="B128" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C128">
         <v>24</v>
@@ -2572,7 +2572,7 @@
         <v>79</v>
       </c>
       <c r="B129" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C129">
         <v>24</v>
@@ -2586,7 +2586,7 @@
         <v>80</v>
       </c>
       <c r="B130" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C130">
         <v>24</v>
@@ -2600,7 +2600,7 @@
         <v>81</v>
       </c>
       <c r="B131" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C131">
         <v>24</v>
@@ -2614,7 +2614,7 @@
         <v>82</v>
       </c>
       <c r="B132" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C132">
         <v>24</v>
